--- a/HK1/NLP/Lab/Assigment2/text_Kieu1866page045.xlsx
+++ b/HK1/NLP/Lab/Assigment2/text_Kieu1866page045.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2140</t>
+          <t xml:space="preserve"> 船皮杜渡莆台 7几</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 从:从{偎皮术</t>
+          <t xml:space="preserve"> +》6 [, 泊生鹳晷彝尼晦睁 82&lt; 5竹 刈49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -474,12 +474,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 丫 +,</t>
+          <t xml:space="preserve"> 「@</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cũng nhà hàng viện xưa nay,</t>
+          <t>Cũng nhà hàng viện xưa nay.</t>
         </is>
       </c>
     </row>
@@ -489,12 +489,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ,花浊尴壤花 2145</t>
+          <t xml:space="preserve"> 共茹行院初脸</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2140 Cũng phường bán thịt; cũng tay buôn người.</t>
+          <t>2140 Cũng phường bán thịt, cũng tay buôn người .</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 洫迦休汶媒黜侪傍</t>
+          <t xml:space="preserve"> 又43 几》; 拱坊半 拱硒奔劓 2140 2霭9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 丫0 93 (49; 共神#共偻撰</t>
+          <t xml:space="preserve"> 5 +, &lt;霭9 + 6几 》94。 秋劓定儇皮耒 刈" 贮94 4}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mối hàng một, đã ra mười thì buông.</t>
+          <t>Môi hàng một, đã ra mười thì buông.</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 脱避娅色刎怵</t>
+          <t xml:space="preserve"> 酶行汶鱼黜进畸摊 眦; 竹9 戊+, 4台 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2150</t>
+          <t xml:space="preserve"> 嗄劓税鞲遵娘</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [30. +"[';效花佻</t>
+          <t xml:space="preserve"> 洎汆粞洎`塘朱赊</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2155</t>
+          <t xml:space="preserve"> 2竹0 &gt;! 鞒花速耀增花 2145 &lt;仓4 竹。3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1'尖墟央漩汆齐</t>
+          <t xml:space="preserve"> 竹。, 边翻体汶媒黜倍傍 8仑 +9 [〉 助4 「 刈; 9, 篷娘匈裢家堂 843 贮9 1 9 44几9, 共神屑霾共坊楼撑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Đưa vào gia đường,.</t>
+          <t>Đưa nàng vào lạy gia đường,.</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 洪蓟!!'`恣佻</t>
+          <t xml:space="preserve"> 脱娘西别情</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cũng thần mày cũng phường lầu xanh!</t>
+          <t>Cũng thần mày trắng, cũng phường lầu xanh!</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 泔八千跳跳'黜</t>
+          <t xml:space="preserve"> 麦篝坤锂拮命」高 2150 「} 19 长几 | &lt;刍</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thoạt trông nàng đã biết tinh,.</t>
+          <t>Thoạt trông nàng đã biết tình,.</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2160</t>
+          <t xml:space="preserve"> &lt;30 切吒丐效花桃</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2150 Chim lồng khôn lẽ cất mình cao.</t>
+          <t>2150 Chim lồng khôn lẽ cất mình bay cao.</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 9 1 +9;</t>
+          <t xml:space="preserve"> 2》 56 竹。 40, 撵黜耒吏然堑如制 63 1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chém cha cái số hoa đào,.</t>
+          <t>Chém cha cái sô hoa đào,.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [49 么9</t>
+          <t xml:space="preserve"> 拧装麻嗲朱装</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 几94。</t>
+          <t xml:space="preserve"> 才情之鹑朱歪坦悭</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nghĩ đời mà ngán cho đời,.</t>
+          <t>Nghĩ đời mà ngán cho đời , !</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94; #9 贮9' 刈9; 9</t>
+          <t xml:space="preserve"> &lt;竹。 +; 4 96! 惜台诺鱼打砥 2155</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +9 9</t>
+          <t xml:space="preserve"> 麻朱埝吏『莲籴吝</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +9</t>
+          <t xml:space="preserve"> 2竹0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -742,6 +742,11 @@
       <c r="A22" t="n">
         <v>2</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 丫》 》 冶几! 洪筠具客缸裙 「几9 44几</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Hồng quân với khách hồng quần,.</t>
@@ -752,9 +757,14 @@
       <c r="A23" t="n">
         <v>2</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 鱼磋且世群恨渚他</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Đã xoay đến thế còn hờn chưa tha.</t>
+          <t>Đã xoay đến thế, còn hờn chưa tha.</t>
         </is>
       </c>
     </row>
@@ -762,6 +772,11 @@
       <c r="A24" t="n">
         <v>2</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +3 涡自落趾趾黜</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Lỡ từ lạc bước, bước ra,.</t>
@@ -772,9 +787,14 @@
       <c r="A25" t="n">
         <v>2</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 丐身料仍自茹料趁 2160</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2160 Cái thân, liệu những từ nhà liệu đi. giá nàng lạy trắng, bay.</t>
+          <t>2160 cái thân liệu, những từ nhà liệu đi giá?</t>
         </is>
       </c>
     </row>
@@ -782,19 +802,9 @@
       <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Cũng.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>người. tay người hàng nàng, vàng, nàng lạy trông lồng bay Hồng.</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> + 几司 仓4 廿 91</t>
         </is>
       </c>
     </row>
